--- a/Kontrollsignale.xlsx
+++ b/Kontrollsignale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\Studium\4. Semester\Rechnerarchitektur\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\Studium\4. Semester\Rechnerarchitektur\RA-Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48415BE-3946-4056-BBF1-78DC2AB6B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48403D86-A025-4938-93B9-C65D395AF846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10044" xr2:uid="{C11F5E9D-3B06-4B1D-BA59-922C2AEC9EE2}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
